--- a/warehouseDRF/ACCOUNTING/xls/receipt.xlsx
+++ b/warehouseDRF/ACCOUNTING/xls/receipt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">товар</t>
   </si>
@@ -28,28 +28,19 @@
     <t xml:space="preserve">количество</t>
   </si>
   <si>
-    <t xml:space="preserve">утюг</t>
+    <t xml:space="preserve">предмет</t>
   </si>
   <si>
     <t xml:space="preserve">33</t>
   </si>
   <si>
-    <t xml:space="preserve">кружка</t>
+    <t xml:space="preserve">Зубная паста</t>
   </si>
   <si>
     <t xml:space="preserve">22</t>
   </si>
   <si>
-    <t xml:space="preserve">тряпка</t>
-  </si>
-  <si>
     <t xml:space="preserve">Костюм</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тойота</t>
-  </si>
-  <si>
-    <t xml:space="preserve">тортилла</t>
   </si>
 </sst>
 </file>
@@ -139,6 +130,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -148,10 +143,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -281,71 +272,59 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>32</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>222</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/warehouseDRF/ACCOUNTING/xls/receipt.xlsx
+++ b/warehouseDRF/ACCOUNTING/xls/receipt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">товар</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t xml:space="preserve">Костюм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Салфетка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шоколадка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крикрос</t>
   </si>
 </sst>
 </file>
@@ -272,7 +281,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,16 +323,28 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>777</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>666</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
   </sheetData>

--- a/warehouseDRF/ACCOUNTING/xls/receipt.xlsx
+++ b/warehouseDRF/ACCOUNTING/xls/receipt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">товар</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">крикрос</t>
+  </si>
+  <si>
+    <t xml:space="preserve">крестнакрест</t>
   </si>
 </sst>
 </file>
@@ -278,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,7 +322,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -346,6 +349,14 @@
         <v>666</v>
       </c>
       <c r="C7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
